--- a/output/comparison/average std dev ratio.xlsx
+++ b/output/comparison/average std dev ratio.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
     <t>Skill</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>overall_2022</t>
@@ -435,13 +435,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.414505656808145</v>
+        <v>0.224620290306922</v>
       </c>
       <c r="C2">
-        <v>0.3662176248649378</v>
+        <v>0.3869875626743892</v>
       </c>
       <c r="D2">
-        <v>0.1945218220382244</v>
+        <v>0.410669212056258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.410669212056258</v>
+        <v>0.1945218220382244</v>
       </c>
       <c r="C3">
-        <v>0.3869875626743892</v>
+        <v>0.3662176248649378</v>
       </c>
       <c r="D3">
-        <v>0.224620290306922</v>
+        <v>0.414505656808145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.3081391905203884</v>
+        <v>0.157821512417315</v>
       </c>
       <c r="C4">
         <v>0.2857700602107766</v>
       </c>
       <c r="D4">
-        <v>0.157821512417315</v>
+        <v>0.3081391905203884</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1889442622269262</v>
+        <v>0.2430647688379925</v>
       </c>
       <c r="C5">
         <v>0.1756273920708042</v>
       </c>
       <c r="D5">
-        <v>0.2430647688379925</v>
+        <v>0.1889442622269262</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.4352061291703314</v>
+        <v>0.284387437439649</v>
       </c>
       <c r="C6">
         <v>0.3736116429706926</v>
       </c>
       <c r="D6">
-        <v>0.284387437439649</v>
+        <v>0.4352061291703314</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>0.3455917738770947</v>
+      </c>
+      <c r="C7">
+        <v>0.442881083260763</v>
+      </c>
+      <c r="D7">
         <v>0.4396464324686049</v>
-      </c>
-      <c r="C7">
-        <v>3.402089445301963E-17</v>
-      </c>
-      <c r="D7">
-        <v>5.536471806953103E-17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>0.2918673340678648</v>
+      </c>
+      <c r="C8">
+        <v>0.2678334455232301</v>
+      </c>
+      <c r="D8">
         <v>0.2599923704863509</v>
-      </c>
-      <c r="C8">
-        <v>4.736180949272848E-17</v>
-      </c>
-      <c r="D8">
-        <v>5.001097868146148E-17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>0.4101357287470291</v>
+      </c>
+      <c r="C9">
+        <v>0.4493075019794904</v>
+      </c>
+      <c r="D9">
         <v>0.4741655031540292</v>
-      </c>
-      <c r="C9">
-        <v>3.790754655679008E-17</v>
-      </c>
-      <c r="D9">
-        <v>5.883520564217519E-17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>0.2109237341342457</v>
+      </c>
+      <c r="C10">
+        <v>0.1939571727221025</v>
+      </c>
+      <c r="D10">
         <v>0.241196731577086</v>
-      </c>
-      <c r="C10">
-        <v>4.790297551279178E-17</v>
-      </c>
-      <c r="D10">
-        <v>3.444740563824231E-17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>0.2180589287638776</v>
+      </c>
+      <c r="C11">
+        <v>0.2443288092747656</v>
+      </c>
+      <c r="D11">
         <v>0.3270520765372381</v>
-      </c>
-      <c r="C11">
-        <v>4.578770559994746E-17</v>
-      </c>
-      <c r="D11">
-        <v>4.196767973416161E-17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -575,13 +575,13 @@
         <v>13</v>
       </c>
       <c r="B12">
+        <v>0.3594054517250565</v>
+      </c>
+      <c r="C12">
+        <v>0.5538586658378754</v>
+      </c>
+      <c r="D12">
         <v>0.5640160854187105</v>
-      </c>
-      <c r="C12">
-        <v>5.381470213106036E-17</v>
-      </c>
-      <c r="D12">
-        <v>5.177789178005736E-17</v>
       </c>
     </row>
   </sheetData>
